--- a/media/eb_order/eb_order_hourly(request).xlsx
+++ b/media/eb_order/eb_order_hourly(request).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>作業期間</t>
   </si>
@@ -241,6 +241,10 @@
     <rPh sb="18" eb="19">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>{$ALLOWANCE_OTHER_MEMO$}</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -961,9 +965,11 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
@@ -985,17 +991,17 @@
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="5"/>
       <c r="F6" s="35" t="s">
         <v>35</v>
@@ -1019,7 +1025,7 @@
       </c>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5">
+    <row r="10" spans="1:9" ht="14.25">
       <c r="F10" s="35" t="s">
         <v>37</v>
       </c>
@@ -1047,7 +1053,7 @@
       <c r="A15" s="1"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="19.5" thickBot="1">
+    <row r="16" spans="1:9" ht="14.25" thickBot="1">
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9">
@@ -1165,7 +1171,9 @@
         <v>25</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="42"/>
+      <c r="C25" s="42" t="s">
+        <v>43</v>
+      </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -1176,9 +1184,7 @@
     <row r="26" spans="1:9" ht="21" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="42" t="s">
-        <v>28</v>
-      </c>
+      <c r="C26" s="42"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -1189,7 +1195,9 @@
     <row r="27" spans="1:9" ht="21" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="42"/>
+      <c r="C27" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
@@ -1419,7 +1427,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>

--- a/media/eb_order/eb_order_hourly(request).xlsx
+++ b/media/eb_order/eb_order_hourly(request).xlsx
@@ -10,16 +10,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ITERATOR_END">Sheet1!$I$25</definedName>
-    <definedName name="ITERATOR_START">Sheet1!$C$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$44</definedName>
+    <definedName name="ITERATOR_END">Sheet1!$I$28</definedName>
+    <definedName name="ITERATOR_START">Sheet1!$C$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$47</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>作業期間</t>
   </si>
@@ -245,6 +245,20 @@
   </si>
   <si>
     <t>{$ALLOWANCE_OTHER_MEMO$}</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>印紙</t>
+    <rPh sb="0" eb="2">
+      <t>インシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>（捺印）</t>
+    <rPh sb="1" eb="3">
+      <t>ナツイン</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -345,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -507,11 +521,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -650,6 +701,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,6 +718,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,177 +1026,140 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row r="1" spans="1:9">
+      <c r="B1" s="46"/>
       <c r="I1" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1">
-      <c r="I2" s="39" t="s">
+    <row r="2" spans="1:9">
+      <c r="B2" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
-      <c r="D3" s="46" t="s">
+    <row r="4" spans="1:9">
+      <c r="B4" s="48"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="52"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1">
+      <c r="D6" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.25">
-      <c r="A4" s="35" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25">
+      <c r="A7" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
-      <c r="A5" s="34" t="s">
+    <row r="8" spans="1:9" ht="14.25">
+      <c r="A8" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25">
-      <c r="A6" s="5"/>
-      <c r="F6" s="35" t="s">
+    <row r="9" spans="1:9" ht="14.25">
+      <c r="A9" s="5"/>
+      <c r="F9" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="F7" s="35" t="s">
+    <row r="10" spans="1:9" ht="18" customHeight="1">
+      <c r="F10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="F8" s="35" t="s">
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1">
+      <c r="F11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="F9" s="35" t="s">
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1">
+      <c r="F12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25">
-      <c r="F10" s="35" t="s">
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25">
+      <c r="F13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="F11" s="37" t="s">
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1">
+      <c r="F14" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.95" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" thickBot="1">
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="18"/>
+    <row r="17" spans="1:9" ht="18" customHeight="1">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.95" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" thickBot="1">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="27" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="27" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -1142,61 +1168,75 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" ht="21" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" ht="21" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+    <row r="23" spans="1:9" ht="27" customHeight="1">
+      <c r="A23" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" ht="27" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" ht="27" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -1206,105 +1246,103 @@
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" ht="27" customHeight="1">
-      <c r="A29" s="7" t="s">
+      <c r="A28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" ht="21" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" ht="21" customHeight="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" ht="21" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" ht="27" customHeight="1">
+      <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="40" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" ht="27" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" ht="27" customHeight="1">
+      <c r="A33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="40" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="41" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A34" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
@@ -1313,11 +1351,11 @@
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" spans="1:9" ht="19.5" customHeight="1">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="44" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
@@ -1326,11 +1364,13 @@
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
     </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
+    <row r="37" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="14"/>
       <c r="C37" s="44" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
@@ -1339,91 +1379,130 @@
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="45" t="s">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="47" t="s">
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A39:I44"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A42:I47"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/media/eb_order/eb_order_hourly(request).xlsx
+++ b/media/eb_order/eb_order_hourly(request).xlsx
@@ -220,10 +220,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>{$SUBCONTRACTOR_NAME$}</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>〒{$SUBCONTRACTOR_POST_CODE$}</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -259,6 +255,10 @@
     <rPh sb="1" eb="3">
       <t>ナツイン</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>{$SUBCONTRACTOR_NAME$}   ㊞</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -710,6 +710,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,9 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,7 +1028,9 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
@@ -1043,16 +1045,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1060,15 +1062,15 @@
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="52"/>
+      <c r="B5" s="49"/>
       <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1">
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="35" t="s">
@@ -1088,13 +1090,13 @@
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="F10" s="35" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="F11" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="36"/>
     </row>
@@ -1251,7 +1253,7 @@
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -1432,72 +1434,72 @@
       <c r="I41" s="33"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="51"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/media/eb_order/eb_order_hourly(request).xlsx
+++ b/media/eb_order/eb_order_hourly(request).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>作業期間</t>
   </si>
@@ -259,6 +259,10 @@
   </si>
   <si>
     <t>{$SUBCONTRACTOR_NAME$}   ㊞</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>{$ALLOWANCE_OTHER_MEMO$}</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1028,9 +1032,7 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
@@ -1265,7 +1267,9 @@
     <row r="29" spans="1:9" ht="21" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="42"/>
+      <c r="C29" s="42" t="s">
+        <v>46</v>
+      </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>

--- a/media/eb_order/eb_order_hourly(request).xlsx
+++ b/media/eb_order/eb_order_hourly(request).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="510" windowWidth="18015" windowHeight="7650"/>
+    <workbookView xWindow="636" yWindow="516" windowWidth="18012" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,10 +224,33 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>平成      年    月    日</t>
+    <t>{$ALLOWANCE_OTHER_MEMO$}</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>印紙</t>
     <rPh sb="0" eb="2">
-      <t>ヘイセイ</t>
+      <t>インシ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>（捺印）</t>
+    <rPh sb="1" eb="3">
+      <t>ナツイン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>{$SUBCONTRACTOR_NAME$}   ㊞</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>{$ALLOWANCE_OTHER_MEMO$}</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        年    月    日</t>
     <rPh sb="8" eb="9">
       <t>ネン</t>
     </rPh>
@@ -237,32 +260,6 @@
     <rPh sb="18" eb="19">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>{$ALLOWANCE_OTHER_MEMO$}</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>印紙</t>
-    <rPh sb="0" eb="2">
-      <t>インシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>（捺印）</t>
-    <rPh sb="1" eb="3">
-      <t>ナツイン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>{$SUBCONTRACTOR_NAME$}   ㊞</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>{$ALLOWANCE_OTHER_MEMO$}</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1034,7 +1031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
@@ -1047,16 +1044,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1074,17 +1071,17 @@
       <c r="E6" s="50"/>
       <c r="F6" s="50"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="F9" s="35" t="s">
         <v>35</v>
@@ -1092,7 +1089,7 @@
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="F10" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="36"/>
     </row>
@@ -1108,7 +1105,7 @@
       </c>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:9" ht="14.25">
+    <row r="13" spans="1:9" ht="19.8">
       <c r="F13" s="35" t="s">
         <v>37</v>
       </c>
@@ -1132,11 +1129,11 @@
     <row r="17" spans="1:9" ht="18" customHeight="1">
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="18.95" customHeight="1">
+    <row r="18" spans="1:9" ht="18.899999999999999" customHeight="1">
       <c r="A18" s="1"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="14.25" thickBot="1">
+    <row r="19" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9">
@@ -1255,7 +1252,7 @@
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -1268,7 +1265,7 @@
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -1512,7 +1509,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>

--- a/media/eb_order/eb_order_hourly(request).xlsx
+++ b/media/eb_order/eb_order_hourly(request).xlsx
@@ -127,10 +127,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>③ 請求書は毎月作業実績表（現場の承認印）を添付の上、翌月5日迄に送付する。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>④ 延長/中止の場合には、両者協議の上、継続検討を行うものとする。</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -260,6 +256,10 @@
     <rPh sb="18" eb="19">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>③ 請求はイー・ビジネスからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1044,16 +1044,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1066,54 +1066,54 @@
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1">
       <c r="D6" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="F9" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="F10" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="F11" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="F12" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="19.8">
       <c r="F13" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="F14" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="36"/>
     </row>
@@ -1123,7 +1123,7 @@
     <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
@@ -1180,7 +1180,7 @@
       <c r="D23" s="17"/>
       <c r="E23" s="18"/>
       <c r="F23" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="40" t="s">
@@ -1237,7 +1237,7 @@
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -1248,11 +1248,11 @@
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -1265,7 +1265,7 @@
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -1278,7 +1278,7 @@
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -1369,11 +1369,11 @@
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="44" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
@@ -1386,7 +1386,7 @@
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
@@ -1399,7 +1399,7 @@
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
@@ -1412,7 +1412,7 @@
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
@@ -1425,7 +1425,7 @@
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>

--- a/media/eb_order/eb_order_hourly(request).xlsx
+++ b/media/eb_order/eb_order_hourly(request).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness.old\media\eb_order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5DFDF1-7A01-4048-AB27-27D96FF42E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="516" windowWidth="18012" windowHeight="7656"/>
+    <workbookView xWindow="3336" yWindow="696" windowWidth="14040" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,14 +265,14 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>③ 請求はイー・ビジネスからメール配信の「御請求書」に押印、郵送する。</t>
+    <t>③ 請求はWisdom Technologyからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -732,6 +738,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1023,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1509,7 +1518,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>
